--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H2">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>8.145855313885333</v>
+        <v>51.32048860097778</v>
       </c>
       <c r="R2">
-        <v>73.312697824968</v>
+        <v>461.8843974087999</v>
       </c>
       <c r="S2">
-        <v>0.04692126624289825</v>
+        <v>0.2015322277613815</v>
       </c>
       <c r="T2">
-        <v>0.04692126624289827</v>
+        <v>0.2015322277613814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H3">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
-        <v>19.90938520275367</v>
+        <v>79.48076015986666</v>
       </c>
       <c r="R3">
-        <v>179.184466824783</v>
+        <v>715.3268414387999</v>
       </c>
       <c r="S3">
-        <v>0.1146808441635885</v>
+        <v>0.3121157864206461</v>
       </c>
       <c r="T3">
-        <v>0.1146808441635886</v>
+        <v>0.3121157864206461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H4">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>8.08290639562</v>
+        <v>34.03775822391111</v>
       </c>
       <c r="R4">
-        <v>72.74615756058</v>
+        <v>306.3398240152</v>
       </c>
       <c r="S4">
-        <v>0.04655867166690629</v>
+        <v>0.1336640673124339</v>
       </c>
       <c r="T4">
-        <v>0.0465586716669063</v>
+        <v>0.1336640673124339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H5">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>15.313404002862</v>
+        <v>40.73429910097777</v>
       </c>
       <c r="R5">
-        <v>137.820636025758</v>
+        <v>366.6086919087999</v>
       </c>
       <c r="S5">
-        <v>0.08820734945765157</v>
+        <v>0.1599609486952952</v>
       </c>
       <c r="T5">
-        <v>0.08820734945765162</v>
+        <v>0.1599609486952952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H6">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>1.295873711752667</v>
+        <v>5.668265477422223</v>
       </c>
       <c r="R6">
-        <v>11.662863405774</v>
+        <v>51.0143892968</v>
       </c>
       <c r="S6">
-        <v>0.007464413877162018</v>
+        <v>0.02225891062904001</v>
       </c>
       <c r="T6">
-        <v>0.007464413877162021</v>
+        <v>0.02225891062904001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H7">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>7.710059381370888</v>
+        <v>35.99351177484444</v>
       </c>
       <c r="R7">
-        <v>69.39053443233799</v>
+        <v>323.9416059736</v>
       </c>
       <c r="S7">
-        <v>0.04441102070217193</v>
+        <v>0.1413441845680657</v>
       </c>
       <c r="T7">
-        <v>0.04441102070217195</v>
+        <v>0.1413441845680657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.340208</v>
       </c>
       <c r="I8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N8">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O8">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P8">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q8">
-        <v>0.6100600783786666</v>
+        <v>0.962769966360889</v>
       </c>
       <c r="R8">
-        <v>5.490540705408</v>
+        <v>8.664929697248001</v>
       </c>
       <c r="S8">
-        <v>0.003514031401094897</v>
+        <v>0.003780735168970381</v>
       </c>
       <c r="T8">
-        <v>0.003514031401094899</v>
+        <v>0.003780735168970381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.340208</v>
       </c>
       <c r="I9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q9">
         <v>1.491055344005333</v>
@@ -1013,10 +1013,10 @@
         <v>13.419498096048</v>
       </c>
       <c r="S9">
-        <v>0.008588687385560814</v>
+        <v>0.005855277558428832</v>
       </c>
       <c r="T9">
-        <v>0.008588687385560815</v>
+        <v>0.005855277558428832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.340208</v>
       </c>
       <c r="I10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N10">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q10">
-        <v>0.60534570272</v>
+        <v>0.6385467526435555</v>
       </c>
       <c r="R10">
-        <v>5.44811132448</v>
+        <v>5.746920773792001</v>
       </c>
       <c r="S10">
-        <v>0.0034868759377426</v>
+        <v>0.002507531652526001</v>
       </c>
       <c r="T10">
-        <v>0.0034868759377426</v>
+        <v>0.002507531652526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.340208</v>
       </c>
       <c r="I11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N11">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O11">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P11">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q11">
-        <v>1.146852735072</v>
+        <v>0.7641735463608889</v>
       </c>
       <c r="R11">
-        <v>10.321674615648</v>
+        <v>6.877561917248</v>
       </c>
       <c r="S11">
-        <v>0.006606032202902303</v>
+        <v>0.003000859917602014</v>
       </c>
       <c r="T11">
-        <v>0.006606032202902306</v>
+        <v>0.003000859917602014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.340208</v>
       </c>
       <c r="I12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N12">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O12">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P12">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q12">
-        <v>0.09705068254933333</v>
+        <v>0.1063363953031111</v>
       </c>
       <c r="R12">
-        <v>0.873456142944</v>
+        <v>0.9570275577280001</v>
       </c>
       <c r="S12">
-        <v>0.0005590255092292165</v>
+        <v>0.000417576122553568</v>
       </c>
       <c r="T12">
-        <v>0.0005590255092292167</v>
+        <v>0.0004175761225535679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.340208</v>
       </c>
       <c r="I13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N13">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O13">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P13">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q13">
-        <v>0.577422412903111</v>
+        <v>0.6752365978062221</v>
       </c>
       <c r="R13">
-        <v>5.196801716127999</v>
+        <v>6.077129380255999</v>
       </c>
       <c r="S13">
-        <v>0.003326033881827057</v>
+        <v>0.002651610293112276</v>
       </c>
       <c r="T13">
-        <v>0.003326033881827059</v>
+        <v>0.002651610293112276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H14">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N14">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O14">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P14">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q14">
-        <v>14.63534321695733</v>
+        <v>0.5767173441384444</v>
       </c>
       <c r="R14">
-        <v>131.718088952616</v>
+        <v>5.190456097246</v>
       </c>
       <c r="S14">
-        <v>0.0843016244676595</v>
+        <v>0.00226473157838629</v>
       </c>
       <c r="T14">
-        <v>0.08430162446765953</v>
+        <v>0.00226473157838629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H15">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q15">
-        <v>35.77042243608566</v>
+        <v>0.8931702358856666</v>
       </c>
       <c r="R15">
-        <v>321.933801924771</v>
+        <v>8.038532122971001</v>
       </c>
       <c r="S15">
-        <v>0.206042637644637</v>
+        <v>0.00350742154478957</v>
       </c>
       <c r="T15">
-        <v>0.206042637644637</v>
+        <v>0.00350742154478957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H16">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I16">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J16">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N16">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q16">
-        <v>14.52224532994</v>
+        <v>0.3825015322037777</v>
       </c>
       <c r="R16">
-        <v>130.70020796946</v>
+        <v>3.442513789834</v>
       </c>
       <c r="S16">
-        <v>0.08365016481563207</v>
+        <v>0.001502058690565555</v>
       </c>
       <c r="T16">
-        <v>0.0836501648156321</v>
+        <v>0.001502058690565554</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H17">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N17">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O17">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P17">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q17">
-        <v>27.51300075509399</v>
+        <v>0.4577543478884444</v>
       </c>
       <c r="R17">
-        <v>247.617006795846</v>
+        <v>4.119789130996</v>
       </c>
       <c r="S17">
-        <v>0.1584787335186639</v>
+        <v>0.001797571613448337</v>
       </c>
       <c r="T17">
-        <v>0.158478733518664</v>
+        <v>0.001797571613448337</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H18">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N18">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O18">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P18">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q18">
-        <v>2.328246182448666</v>
+        <v>0.06369750368955555</v>
       </c>
       <c r="R18">
-        <v>20.954215642038</v>
+        <v>0.5732775332060001</v>
       </c>
       <c r="S18">
-        <v>0.01341102374105133</v>
+        <v>0.0002501359626796377</v>
       </c>
       <c r="T18">
-        <v>0.01341102374105133</v>
+        <v>0.0002501359626796376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H19">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N19">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O19">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P19">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q19">
-        <v>13.85236551858955</v>
+        <v>0.4044794405291111</v>
       </c>
       <c r="R19">
-        <v>124.671289667306</v>
+        <v>3.640314964762</v>
       </c>
       <c r="S19">
-        <v>0.07979156338362053</v>
+        <v>0.001588364510075142</v>
       </c>
       <c r="T19">
-        <v>0.07979156338362056</v>
+        <v>0.001588364510075142</v>
       </c>
     </row>
   </sheetData>
